--- a/public/filesExcel/templateAidDistribution.xlsx
+++ b/public/filesExcel/templateAidDistribution.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alsaeyd Alakhras\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-Programming\01-Working-Companies\02-Salah\Projects\aid-registry\public\filesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869860ED-DEA6-4FEC-A0E6-04558FD82F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE255AF-15D6-45C4-A126-0132722AB5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{968E9332-7B49-4115-A4F6-A335BA14C462}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{968E9332-7B49-4115-A4F6-A335BA14C462}"/>
   </bookViews>
   <sheets>
     <sheet name="المساعدات" sheetId="1" r:id="rId1"/>
     <sheet name="قاعدة البيانات" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">المساعدات!$B$1:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">المساعدات!$B$1:$T$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">المساعدات!$1:$1</definedName>
     <definedName name="بيانات_المعيل">#REF!</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>رقم الهوية</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>مكتب رفح</t>
+  </si>
+  <si>
+    <t>المؤسسة</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,59 +295,44 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -666,124 +654,128 @@
     <tabColor theme="5" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.44140625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.77734375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" style="22" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.21875" style="22" customWidth="1"/>
-    <col min="21" max="21" width="17.109375" style="7" customWidth="1"/>
-    <col min="22" max="22" width="43.5546875" style="22" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="23.77734375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.21875" style="13" customWidth="1"/>
+    <col min="22" max="22" width="17.109375" style="7" customWidth="1"/>
+    <col min="23" max="23" width="43.5546875" style="13" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+    <row r="2" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="4"/>
       <c r="F2" s="5"/>
       <c r="H2" s="3"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="T2" s="7"/>
-      <c r="V2" s="25"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="U2" s="7"/>
+      <c r="W2" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:S2" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="B1:T2" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.17" top="0.4" bottom="0.25" header="0.31496062992125984" footer="0.18"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -800,13 +792,13 @@
           <x14:formula1>
             <xm:f>'قاعدة البيانات'!$G$5:$G$15</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P1048576</xm:sqref>
+          <xm:sqref>Q2:Q1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21F83EC2-A682-4B1D-BACD-990766473C14}">
           <x14:formula1>
             <xm:f>'قاعدة البيانات'!$I$5:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q1048576</xm:sqref>
+          <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -818,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB86C78-D508-4A13-BCB3-B72A50FA9E65}">
   <dimension ref="E2:L13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -830,91 +822,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="4" spans="5:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>38</v>
       </c>
     </row>

--- a/public/filesExcel/templateAidDistribution.xlsx
+++ b/public/filesExcel/templateAidDistribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-Programming\01-Working-Companies\02-Salah\Projects\aid-registry\public\filesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE255AF-15D6-45C4-A126-0132722AB5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150EA64-0D68-49B8-A807-EED6CE03DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{968E9332-7B49-4115-A4F6-A335BA14C462}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{968E9332-7B49-4115-A4F6-A335BA14C462}"/>
   </bookViews>
   <sheets>
     <sheet name="المساعدات" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -810,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB86C78-D508-4A13-BCB3-B72A50FA9E65}">
   <dimension ref="E2:L13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K4" sqref="K4:K13"/>
     </sheetView>
   </sheetViews>

--- a/public/filesExcel/templateAidDistribution.xlsx
+++ b/public/filesExcel/templateAidDistribution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-Programming\01-Working-Companies\02-Salah\Projects\aid-registry\public\filesExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alsaeyd Alakhras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150EA64-0D68-49B8-A807-EED6CE03DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C5BB53-051B-4A1F-A809-32D7257DC389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{968E9332-7B49-4115-A4F6-A335BA14C462}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="قاعدة البيانات" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">المساعدات!$B$1:$T$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">المساعدات!$B$1:$T$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">المساعدات!$1:$1</definedName>
     <definedName name="بيانات_المعيل">#REF!</definedName>
   </definedNames>
@@ -159,7 +159,7 @@
     <t>مكتب رفح</t>
   </si>
   <si>
-    <t>المؤسسة</t>
+    <t>رقم المشروع</t>
   </si>
 </sst>
 </file>
@@ -227,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,21 +282,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -314,22 +311,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,128 +651,114 @@
     <tabColor theme="5" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="23.77734375" style="13" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.21875" style="13" customWidth="1"/>
-    <col min="22" max="22" width="17.109375" style="7" customWidth="1"/>
-    <col min="23" max="23" width="43.5546875" style="13" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="23.77734375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.21875" style="10" customWidth="1"/>
+    <col min="22" max="22" width="17.109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="43.5546875" style="10" customWidth="1"/>
     <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="H2" s="3"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="U2" s="7"/>
-      <c r="W2" s="19"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:T2" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="B1:T1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.17" top="0.4" bottom="0.25" header="0.31496062992125984" footer="0.18"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -822,91 +805,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="4" spans="5:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="5:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>38</v>
       </c>
     </row>
